--- a/Centrales (Con oferta inicial).xlsx
+++ b/Centrales (Con oferta inicial).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGA\Desktop\INFORMACIÓN PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGA\Documents\GitHub\Proyecto-Introduccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
+    <sheet name="String Generation" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Connection1" localSheetId="0" hidden="1">Hoja2!#REF!</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="347">
   <si>
     <t>MJEPIRAC</t>
   </si>
@@ -389,9 +391,6 @@
     <t>Mincentral Central San jose de la montaña</t>
   </si>
   <si>
-    <t>Nombre Oferta inicial</t>
-  </si>
-  <si>
     <t>JEPIRACHI1-15</t>
   </si>
   <si>
@@ -648,13 +647,589 @@
   </si>
   <si>
     <t>TRONERAS</t>
+  </si>
+  <si>
+    <t>LISTA MAPA</t>
+  </si>
+  <si>
+    <t>EÓLICA</t>
+  </si>
+  <si>
+    <t>E-1</t>
+  </si>
+  <si>
+    <t>PARQUE EÓLICO DE JEPÍRACHI</t>
+  </si>
+  <si>
+    <t>H-1</t>
+  </si>
+  <si>
+    <t>LA HERRADURA</t>
+  </si>
+  <si>
+    <t>H-7</t>
+  </si>
+  <si>
+    <t>404 (Se usará oferta inicial)</t>
+  </si>
+  <si>
+    <t>TERMOELÉCTRICA</t>
+  </si>
+  <si>
+    <t>T-12</t>
+  </si>
+  <si>
+    <t>SAN CARLOS</t>
+  </si>
+  <si>
+    <t>MIEL I</t>
+  </si>
+  <si>
+    <t>EL QUIMBO</t>
+  </si>
+  <si>
+    <t>PARAÍSO</t>
+  </si>
+  <si>
+    <t>GUACA</t>
+  </si>
+  <si>
+    <t>LA TASAJERA</t>
+  </si>
+  <si>
+    <t>CARACOLÍ</t>
+  </si>
+  <si>
+    <t>LIMONAR</t>
+  </si>
+  <si>
+    <t>DARIO VALENCIA</t>
+  </si>
+  <si>
+    <t>SAN JOSÉ DE LA MONTAÑA</t>
+  </si>
+  <si>
+    <t>GUADALUPE III</t>
+  </si>
+  <si>
+    <t>GUADALUPE IV</t>
+  </si>
+  <si>
+    <t>PORCE II</t>
+  </si>
+  <si>
+    <t>PORCE III</t>
+  </si>
+  <si>
+    <t>GUATAPÉ</t>
+  </si>
+  <si>
+    <t>SONSÓN</t>
+  </si>
+  <si>
+    <t>TAMESIS</t>
+  </si>
+  <si>
+    <t>RIO ABAJO</t>
+  </si>
+  <si>
+    <t>AMOYA LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>URRA I</t>
+  </si>
+  <si>
+    <t>TERMOFLORES</t>
+  </si>
+  <si>
+    <t>TERMOBARRANQUILLA</t>
+  </si>
+  <si>
+    <t>TERMOGUAJIRA</t>
+  </si>
+  <si>
+    <t>TERMOSAJERA</t>
+  </si>
+  <si>
+    <t>TERMOTASAJERO</t>
+  </si>
+  <si>
+    <t>TERMOEMCALI</t>
+  </si>
+  <si>
+    <t>TERMOPAIPA</t>
+  </si>
+  <si>
+    <t>TERMOCENTRO</t>
+  </si>
+  <si>
+    <t>TERMOELÉCTRICA MARTIN DEL CORRAL</t>
+  </si>
+  <si>
+    <t>CENTRAL TÉRMICA DE CARTAGENA</t>
+  </si>
+  <si>
+    <t>MERIELECTRICA</t>
+  </si>
+  <si>
+    <t>TERMOSIERRA</t>
+  </si>
+  <si>
+    <t>MERILECTRICA</t>
+  </si>
+  <si>
+    <t>HIDROELÉCTRICA</t>
+  </si>
+  <si>
+    <t>String Gen</t>
+  </si>
+  <si>
+    <t>RIOFRIOTAMESIS</t>
+  </si>
+  <si>
+    <t>JEPIRACHI115</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;PARQUE EÓLICO DE JEPÍRACHI&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($JEPIRACHI115); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;LA HERRADURA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LAHERRADURA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;JAGUAS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($JAGUAS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;SAN CARLOS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SANCARLOS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;SOGAMOSO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SOGAMOSO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;AMOYA LA ESPERANZA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($AMOYALAESPERANZA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;MIEL I&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($MIELI); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;CALDERAS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CALDERAS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;GUAVIO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUAVIO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;BETANIA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($BETANIA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;EL QUIMBO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($ELQUIMBO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;PARAÍSO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PARAISO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;GUACA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LAGUACA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TEQUENDAMA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TEQUENDAMA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;LA TASAJERA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LATASAJERA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;CARACOLÍ&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CARACOLI); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;LIMONAR&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($ELLIMONAR); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;DARIO VALENCIA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($DARIOVALENCIASAMPER); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;LAGUNETA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LAGUNETA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;PAJARITO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PAJARITO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;SAN JOSÉ DE LA MONTAÑA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SANJOSEDELAMONTAÑA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TRONERAS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TRONERAS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;GUADALUPE III&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUADALUPE3); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;GUADALUPE IV&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUADALUPE4); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;PORCE II&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PORCEII); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;PORCE III&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PORCEIII); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;GUATAPÉ&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUATAPE); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;RIO ABAJO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($RIOABAJO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;SONSÓN&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SONSON); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TAMESIS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($RIOFRIOTAMESIS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;AYURA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($AYURA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;NIQUIA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($NIQUIA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;URRA I&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($URRA1); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;CHIVOR&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CHIVOR); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;CUCUANA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CUCUANA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;CALIMA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CALIMA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOFLORES&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($FLORES); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOBARRANQUILLA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($BARRANQUILLA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOGUAJIRA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUAJIRA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOSAJERA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TASAJERO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOEMCALI&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TERMOEMCALI1); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOPAIPA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PAIPA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOCENTRO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TERMOCENTROCC); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOELÉCTRICA MARTIN DEL CORRAL&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($ZIPAEMG); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;CENTRAL TÉRMICA DE CARTAGENA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CARTAGENA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;MERIELECTRICA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($MERILECTRICA1); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;td&gt;TERMOSIERRA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TERMOSIERRAB); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;th&gt;TERMOELÉCTRICA&lt;/th&gt;
+  &lt;td&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;th&gt;HIDROELÉCTRICA&lt;/th&gt;
+  &lt;td&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;
+  &lt;th&gt;EÓLICA&lt;/th&gt;
+  &lt;td&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>H-2</t>
+  </si>
+  <si>
+    <t>H-3</t>
+  </si>
+  <si>
+    <t>H-4</t>
+  </si>
+  <si>
+    <t>H-5</t>
+  </si>
+  <si>
+    <t>H-6</t>
+  </si>
+  <si>
+    <t>H-8</t>
+  </si>
+  <si>
+    <t>H-9</t>
+  </si>
+  <si>
+    <t>H-10</t>
+  </si>
+  <si>
+    <t>H-11</t>
+  </si>
+  <si>
+    <t>H-12</t>
+  </si>
+  <si>
+    <t>H-13</t>
+  </si>
+  <si>
+    <t>H-14</t>
+  </si>
+  <si>
+    <t>H-15</t>
+  </si>
+  <si>
+    <t>H-16</t>
+  </si>
+  <si>
+    <t>H-17</t>
+  </si>
+  <si>
+    <t>H-18</t>
+  </si>
+  <si>
+    <t>H-19</t>
+  </si>
+  <si>
+    <t>H-20</t>
+  </si>
+  <si>
+    <t>H-21</t>
+  </si>
+  <si>
+    <t>H-22</t>
+  </si>
+  <si>
+    <t>H-23</t>
+  </si>
+  <si>
+    <t>H-24</t>
+  </si>
+  <si>
+    <t>H-25</t>
+  </si>
+  <si>
+    <t>H-26</t>
+  </si>
+  <si>
+    <t>H-27</t>
+  </si>
+  <si>
+    <t>H-28</t>
+  </si>
+  <si>
+    <t>H-29</t>
+  </si>
+  <si>
+    <t>H-30</t>
+  </si>
+  <si>
+    <t>H-31</t>
+  </si>
+  <si>
+    <t>H-32</t>
+  </si>
+  <si>
+    <t>H-33</t>
+  </si>
+  <si>
+    <t>H-34</t>
+  </si>
+  <si>
+    <t>H-35</t>
+  </si>
+  <si>
+    <t>T-1</t>
+  </si>
+  <si>
+    <t>T-2</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>T-4</t>
+  </si>
+  <si>
+    <t>T-6</t>
+  </si>
+  <si>
+    <t>T-7</t>
+  </si>
+  <si>
+    <t>T-8</t>
+  </si>
+  <si>
+    <t>T-9</t>
+  </si>
+  <si>
+    <t>T-10</t>
+  </si>
+  <si>
+    <t>T-11</t>
+  </si>
+  <si>
+    <t>PORCE I</t>
+  </si>
+  <si>
+    <t>T-12 en el mapa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -694,6 +1269,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -800,15 +1383,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -853,18 +1437,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -886,9 +1458,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -962,8 +1563,8 @@
       <xdr:rowOff>20409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6951576</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>964433</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>124792</xdr:rowOff>
     </xdr:to>
@@ -1298,19 +1899,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD110"/>
+  <dimension ref="A1:AD170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
     <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
     <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1326,13 +1927,14 @@
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="e">
+        <f>Hoja2!G119Py</f>
+        <v>#NAME?</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>94</v>
@@ -1344,21 +1946,21 @@
         <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="I1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
@@ -1375,13 +1977,13 @@
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
@@ -1401,13 +2003,13 @@
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -1424,20 +2026,20 @@
       <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>44</v>
@@ -1458,13 +2060,13 @@
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -1482,21 +2084,21 @@
       <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
@@ -1514,26 +2116,26 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1546,16 +2148,19 @@
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="J7" s="40" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>44</v>
@@ -1576,13 +2181,13 @@
     </row>
     <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>44</v>
@@ -1600,21 +2205,21 @@
       <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>44</v>
@@ -1635,13 +2240,13 @@
     </row>
     <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>44</v>
@@ -1659,22 +2264,22 @@
       <c r="H11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
@@ -1692,21 +2297,21 @@
       <c r="H12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>44</v>
@@ -1723,24 +2328,24 @@
       <c r="H13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
@@ -1763,10 +2368,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
@@ -1787,13 +2392,13 @@
     </row>
     <row r="16" spans="1:29" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
@@ -1817,10 +2422,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
@@ -1841,13 +2446,13 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>45</v>
@@ -1868,13 +2473,13 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>45</v>
@@ -1895,13 +2500,13 @@
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>45</v>
@@ -1925,10 +2530,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>45</v>
@@ -1952,10 +2557,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>45</v>
@@ -1979,10 +2584,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>45</v>
@@ -2003,13 +2608,13 @@
     </row>
     <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
         <v>151</v>
-      </c>
-      <c r="C24" t="s">
-        <v>152</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>45</v>
@@ -2027,26 +2632,26 @@
       <c r="H24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>45</v>
@@ -2064,22 +2669,22 @@
       <c r="H25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>45</v>
@@ -2103,10 +2708,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>45</v>
@@ -2127,13 +2732,13 @@
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>45</v>
@@ -2154,13 +2759,13 @@
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>45</v>
@@ -2181,13 +2786,13 @@
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>45</v>
@@ -2208,13 +2813,13 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>45</v>
@@ -2235,13 +2840,13 @@
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>45</v>
@@ -2262,13 +2867,13 @@
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>45</v>
@@ -2280,29 +2885,29 @@
         <v>118</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
+      <c r="I33" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>45</v>
@@ -2320,23 +2925,23 @@
       <c r="H34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
     </row>
     <row r="35" spans="1:17" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>45</v>
@@ -2348,34 +2953,34 @@
       <c r="F35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="5">
-        <v>404</v>
+      <c r="G35" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>45</v>
@@ -2387,30 +2992,30 @@
       <c r="F36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="5">
-        <v>404</v>
+      <c r="G36" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:17" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>45</v>
@@ -2434,13 +3039,13 @@
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
@@ -2461,22 +3066,22 @@
       <c r="I38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>45</v>
@@ -2497,13 +3102,13 @@
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>45</v>
@@ -2524,13 +3129,13 @@
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>45</v>
@@ -2551,13 +3156,13 @@
     </row>
     <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>45</v>
@@ -2575,22 +3180,22 @@
       <c r="H42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -2611,13 +3216,13 @@
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>45</v>
@@ -2638,13 +3243,13 @@
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
@@ -2668,10 +3273,10 @@
         <v>34</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>45</v>
@@ -2695,10 +3300,10 @@
         <v>35</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>45</v>
@@ -2719,13 +3324,13 @@
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>45</v>
@@ -2763,21 +3368,21 @@
         <v>42</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M110" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M110" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="29"/>
-      <c r="Q110" s="24" t="s">
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="R110" s="25"/>
-      <c r="S110" s="25"/>
-      <c r="T110" s="25"/>
-      <c r="U110" s="26"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="22"/>
       <c r="W110" s="10"/>
       <c r="AA110" s="7" t="s">
         <v>99</v>
@@ -2792,8 +3397,833 @@
         <v>114</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="G120" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" t="s">
+        <v>208</v>
+      </c>
+      <c r="G121" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="str">
+        <f>"H-"&amp;A123</f>
+        <v>H-1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>210</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>A123+1</f>
+        <v>2</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" ref="B124:B157" si="2">"H-"&amp;A124</f>
+        <v>H-2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" ref="A125:A157" si="3">A124+1</f>
+        <v>3</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="2"/>
+        <v>H-3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>215</v>
+      </c>
+      <c r="G125" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="2"/>
+        <v>H-4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="2"/>
+        <v>H-5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>233</v>
+      </c>
+      <c r="G127" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="2"/>
+        <v>H-6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>216</v>
+      </c>
+      <c r="G128" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="2"/>
+        <v>H-7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>195</v>
+      </c>
+      <c r="G129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="2"/>
+        <v>H-8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="2"/>
+        <v>H-9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>H-10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>217</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>H-11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>H-12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>219</v>
+      </c>
+      <c r="G134" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>H-13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>155</v>
+      </c>
+      <c r="G135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>H-14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>220</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>H-15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>221</v>
+      </c>
+      <c r="G137" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>H-16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G138" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>H-17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>223</v>
+      </c>
+      <c r="G139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>H-18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>160</v>
+      </c>
+      <c r="G140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>H-19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
+      </c>
+      <c r="G141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>H-20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>224</v>
+      </c>
+      <c r="G142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>H-21</v>
+      </c>
+      <c r="C143" t="s">
+        <v>204</v>
+      </c>
+      <c r="G143" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>H-22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>225</v>
+      </c>
+      <c r="G144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>H-23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>226</v>
+      </c>
+      <c r="G145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>H-24</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>H-25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+      <c r="G147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>H-26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>229</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>H-27</v>
+      </c>
+      <c r="C149" t="s">
+        <v>232</v>
+      </c>
+      <c r="G149" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>H-28</v>
+      </c>
+      <c r="C150" t="s">
+        <v>230</v>
+      </c>
+      <c r="G150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>H-29</v>
+      </c>
+      <c r="C151" t="s">
+        <v>231</v>
+      </c>
+      <c r="G151" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>H-30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>172</v>
+      </c>
+      <c r="G152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>H-31</v>
+      </c>
+      <c r="C153" t="s">
+        <v>173</v>
+      </c>
+      <c r="G153" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>H-32</v>
+      </c>
+      <c r="C154" t="s">
+        <v>234</v>
+      </c>
+      <c r="G154" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>H-33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>H-34</v>
+      </c>
+      <c r="C156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>H-35</v>
+      </c>
+      <c r="C157" t="s">
+        <v>202</v>
+      </c>
+      <c r="G157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G158" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="str">
+        <f>"T-"&amp;A159</f>
+        <v>T-1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>235</v>
+      </c>
+      <c r="G159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>1+A159</f>
+        <v>2</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" ref="B160:B170" si="4">"T-"&amp;A160</f>
+        <v>T-2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>236</v>
+      </c>
+      <c r="G160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" ref="A161:A170" si="5">1+A160</f>
+        <v>3</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="4"/>
+        <v>T-3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>237</v>
+      </c>
+      <c r="G161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="4"/>
+        <v>T-4</v>
+      </c>
+      <c r="C162" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="32">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B163" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>T-5</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="4"/>
+        <v>T-6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>240</v>
+      </c>
+      <c r="G164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="4"/>
+        <v>T-7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>241</v>
+      </c>
+      <c r="G165" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="4"/>
+        <v>T-8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>242</v>
+      </c>
+      <c r="G166" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="4"/>
+        <v>T-9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>243</v>
+      </c>
+      <c r="G167" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="4"/>
+        <v>T-10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>244</v>
+      </c>
+      <c r="G168" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B169" t="str">
+        <f>"T-"&amp;A169</f>
+        <v>T-11</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G169" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="4"/>
+        <v>T-12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>246</v>
+      </c>
+      <c r="G170" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="K35:Q36"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="A117:C117"/>
     <mergeCell ref="Q110:U110"/>
     <mergeCell ref="M110:P110"/>
     <mergeCell ref="I1:P1"/>
@@ -2810,8 +4240,6 @@
     <mergeCell ref="J42:M42"/>
     <mergeCell ref="I34:M34"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:Q36"/>
-    <mergeCell ref="I33:N33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K35" r:id="rId1" xr:uid="{E2BA2675-72DF-4D90-944A-C0F171276EAE}"/>
@@ -2820,4 +4248,1242 @@
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7E5845-F58C-43DD-A25F-3F957FD8497D}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
+    <col min="4" max="4" width="99.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"&lt;tr&gt;
+  &lt;th&gt;"&amp;A1&amp;"&lt;/th&gt;  
+  &lt;td&gt;"&amp;B1&amp;"&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($"&amp;C1&amp;"); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+  &lt;th&gt;&lt;/th&gt;  
+  &lt;td&gt;EÓLICA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($EÓLICA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D50" si="0">"&lt;tr&gt;
+  &lt;th&gt;"&amp;A2&amp;"&lt;/th&gt;  
+  &lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($"&amp;C2&amp;"); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+  &lt;th&gt;E-1&lt;/th&gt;  
+  &lt;td&gt;PARQUE EÓLICO DE JEPÍRACHI&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($JEPIRACHI115); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;&lt;/th&gt;  
+  &lt;td&gt;HIDROELÉCTRICA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($HIDROELÉCTRICA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-1&lt;/th&gt;  
+  &lt;td&gt;LA HERRADURA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LAHERRADURA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-2&lt;/th&gt;  
+  &lt;td&gt;JAGUAS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($JAGUAS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-3&lt;/th&gt;  
+  &lt;td&gt;SAN CARLOS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SANCARLOS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-4&lt;/th&gt;  
+  &lt;td&gt;SOGAMOSO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SOGAMOSO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-5&lt;/th&gt;  
+  &lt;td&gt;AMOYA LA ESPERANZA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($AMOYALAESPERANZA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-6&lt;/th&gt;  
+  &lt;td&gt;MIEL I&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($MIELI); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-7&lt;/th&gt;  
+  &lt;td&gt;CALDERAS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CALDERAS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-8&lt;/th&gt;  
+  &lt;td&gt;GUAVIO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUAVIO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-9&lt;/th&gt;  
+  &lt;td&gt;BETANIA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($BETANIA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-10&lt;/th&gt;  
+  &lt;td&gt;EL QUIMBO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($ELQUIMBO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-11&lt;/th&gt;  
+  &lt;td&gt;PARAÍSO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PARAISO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-12&lt;/th&gt;  
+  &lt;td&gt;GUACA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LAGUACA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-13&lt;/th&gt;  
+  &lt;td&gt;TEQUENDAMA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TEQUENDAMA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-14&lt;/th&gt;  
+  &lt;td&gt;LA TASAJERA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LATASAJERA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-15&lt;/th&gt;  
+  &lt;td&gt;CARACOLÍ&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CARACOLI); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-16&lt;/th&gt;  
+  &lt;td&gt;LIMONAR&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($ELLIMONAR); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-17&lt;/th&gt;  
+  &lt;td&gt;DARIO VALENCIA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($DARIOVALENCIASAMPER); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-18&lt;/th&gt;  
+  &lt;td&gt;LAGUNETA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($LAGUNETA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-19&lt;/th&gt;  
+  &lt;td&gt;PAJARITO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PAJARITO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-20&lt;/th&gt;  
+  &lt;td&gt;SAN JOSÉ DE LA MONTAÑA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SANJOSEDELAMONTAÑA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-21&lt;/th&gt;  
+  &lt;td&gt;TRONERAS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TRONERAS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-22&lt;/th&gt;  
+  &lt;td&gt;GUADALUPE III&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUADALUPE3); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-23&lt;/th&gt;  
+  &lt;td&gt;GUADALUPE IV&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUADALUPE4); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-24&lt;/th&gt;  
+  &lt;td&gt;PORCE II&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PORCEII); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-25&lt;/th&gt;  
+  &lt;td&gt;PORCE III&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PORCEIII); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-26&lt;/th&gt;  
+  &lt;td&gt;GUATAPÉ&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUATAPE); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-27&lt;/th&gt;  
+  &lt;td&gt;RIO ABAJO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($RIOABAJO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-28&lt;/th&gt;  
+  &lt;td&gt;SONSÓN&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($SONSON); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-29&lt;/th&gt;  
+  &lt;td&gt;TAMESIS&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($RIOFRIOTAMESIS); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>329</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-30&lt;/th&gt;  
+  &lt;td&gt;AYURA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($AYURA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-31&lt;/th&gt;  
+  &lt;td&gt;NIQUIA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($NIQUIA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-32&lt;/th&gt;  
+  &lt;td&gt;URRA I&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($URRA1); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-33&lt;/th&gt;  
+  &lt;td&gt;CHIVOR&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CHIVOR); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-34&lt;/th&gt;  
+  &lt;td&gt;CUCUANA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CUCUANA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;H-35&lt;/th&gt;  
+  &lt;td&gt;CALIMA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CALIMA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;&lt;/th&gt;  
+  &lt;td&gt;TERMOELÉCTRICA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TERMOELÉCTRICA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-1&lt;/th&gt;  
+  &lt;td&gt;TERMOFLORES&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($FLORES); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-2&lt;/th&gt;  
+  &lt;td&gt;TERMOBARRANQUILLA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($BARRANQUILLA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-3&lt;/th&gt;  
+  &lt;td&gt;TERMOGUAJIRA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($GUAJIRA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-4&lt;/th&gt;  
+  &lt;td&gt;TERMOSAJERA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TASAJERO); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-6&lt;/th&gt;  
+  &lt;td&gt;TERMOEMCALI&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TERMOEMCALI1); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-7&lt;/th&gt;  
+  &lt;td&gt;TERMOPAIPA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($PAIPA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-8&lt;/th&gt;  
+  &lt;td&gt;TERMOCENTRO&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TERMOCENTROCC); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-9&lt;/th&gt;  
+  &lt;td&gt;TERMOELÉCTRICA MARTIN DEL CORRAL&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($ZIPAEMG); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-10&lt;/th&gt;  
+  &lt;td&gt;CENTRAL TÉRMICA DE CARTAGENA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($CARTAGENA); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-11&lt;/th&gt;  
+  &lt;td&gt;MERIELECTRICA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($MERILECTRICA1); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+  &lt;th&gt;T-12&lt;/th&gt;  
+  &lt;td&gt;TERMOSIERRA&lt;/td&gt;
+  &lt;td&gt; &lt;?php echo($TERMOSIERRAB); ?&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83DE955-B0D4-4B47-AF6E-6D5BF9611B6F}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="107" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>